--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Evergarden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA0460-D3C9-4668-871C-6186EB15190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276E1A3-EFFB-453E-958E-C4A42037F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContentsJ" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,423 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>param1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>param2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+  <si>
+    <t>{{Vol}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vol. 38 (December 8, 2022)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{PQD1}}</t>
+  </si>
+  <si>
+    <t>{{CGD1}}</t>
+  </si>
+  <si>
+    <t>{{PRM1}}</t>
+  </si>
+  <si>
+    <t>{{FM1}}</t>
+  </si>
+  <si>
+    <t>{{DD2}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{DD3}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{PQD2}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{PQD3}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{CGD2}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{CGD3}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{PRM2}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{PRM3}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{FM2}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{FM3}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{AM1}}</t>
+  </si>
+  <si>
+    <t>{{AM2}}</t>
+  </si>
+  <si>
+    <t>{{AM3}}</t>
+  </si>
+  <si>
+    <t>{{DD1}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.DD1</t>
+  </si>
+  <si>
+    <t>p.DD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.DD3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PQD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PQD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PQD3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.CGD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.CGD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.CGD3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PRM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PRM2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.PRM3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.FM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.FM2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.FM3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.AM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.AM2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p.AM3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST{{DD2}}</t>
+  </si>
+  <si>
+    <t>TESTp.DD2</t>
+  </si>
+  <si>
+    <t>TEST{{DD3}}</t>
+  </si>
+  <si>
+    <t>TESTp.DD3</t>
+  </si>
+  <si>
+    <t>TEST{{CGD1}}</t>
+  </si>
+  <si>
+    <t>TESTp.CGD1</t>
+  </si>
+  <si>
+    <t>TEST{{CGD2}}</t>
+  </si>
+  <si>
+    <t>TESTp.CGD2</t>
+  </si>
+  <si>
+    <t>TEST{{CGD3}}</t>
+  </si>
+  <si>
+    <t>TESTp.CGD3</t>
+  </si>
+  <si>
+    <t>TEST{{TESTp.M2}}</t>
+  </si>
+  <si>
+    <t>TESTp.TESTp.M2</t>
+  </si>
+  <si>
+    <t>TEST{{TESTp.M3}}</t>
+  </si>
+  <si>
+    <t>TESTp.TESTp.M3</t>
+  </si>
+  <si>
+    <t>TEST{{FM1}}</t>
+  </si>
+  <si>
+    <t>TESTp.FM1</t>
+  </si>
+  <si>
+    <t>TEST{{FM2}}</t>
+  </si>
+  <si>
+    <t>TESTp.FM2</t>
+  </si>
+  <si>
+    <t>TEST{{FM3}}</t>
+  </si>
+  <si>
+    <t>TESTp.FM3</t>
+  </si>
+  <si>
+    <t>TEST{{AM1}}</t>
+  </si>
+  <si>
+    <t>TESTp.AM1</t>
+  </si>
+  <si>
+    <t>TEST{{AM2}}</t>
+  </si>
+  <si>
+    <t>TESTp.AM2</t>
+  </si>
+  <si>
+    <t>TEST{{AM3}}</t>
+  </si>
+  <si>
+    <t>TESTp.AM3</t>
+  </si>
+  <si>
+    <t>ディストリクト再編について</t>
+  </si>
+  <si>
+    <t>11月6日開催のディストリクト役員会（District Executive Committee(DEC)：Area Director以上のDistrict役員にて構成）において、ディストリクト76を分割する動議が可決されました。
+可決された内容は次の通りです。
+ディストリクト76を分割をする
+ディストリクト分割のラインは、以下の通りとする（76A, 76B）
+76A 神奈川以西 + 東京市町村部、76B 埼玉千葉以北 + 東京23区
+＜日本＞			＜東京＞
+ディストリクト76（日本）は、2004年にトーストマスターズの正式なディストリクトとして承認されて以来、急速に成長し、今日では220以上のクラブが所属する世界でも有数の巨大な組織になりました。
+今回の決議により、組織運営がより安定的なものとなり、コロナ禍以後日本のトーストマスターズが更に成長するための基盤を作ることができます。
+これは、これまで日本における多くの会員の皆さんがトーストマスターズの活動を熱心に支援し、発展させてきた素晴らしい結果であると感じています。
+クラブ数が200を超えたディストリクトは、トーストマスターズインターナショナルの Protcol 7.0 に基づいて、その分割の検討を開始することができます。日本では、200クラブ到達を間近に控えた2019年から議論が始まり、前期のDECにおいて「ディストリクト再編委員会を作って検討を開始する」決定を受けて、前期ディストリクト・ディレクター（IPDD）の松本真紀さんを委員長とする再編準備委員会が本年度7月に発足しました。
+再編準備委員会は、過去のディストリクト役員、並びに各地域のディビジョンディレクター経験者をメンバーとして活動を開始。検討に当たっては、本委員会メンバーのみのクローズしたものではなく、DECメンバーとも情報共有し、9月のDECでは再編そのものの是非も含めて議論するなど、慎重に検討を重ねて参りました。
+そしてこの度、Protcol 7.0 3-C項に従い、DECの過半数の承認を得たことにより、トーストマスターズインターナショナルに対して正式に分割のプロセスを進めることになりました。
+ディストリクト運営の変更については、各クラブの会員の方々にとって少し不透明なところもあろうかと思います。これまでの具体的な検討内容はリンク先の文書に記載しておりますので、ご参考までにご覧ください。
+https://drive.google.com/file/d/10poMF_aWOKTfzKcC_UdPqupxITV-UAel/view?usp=share_link
+今後、トーストマスターズインターナショナルの理事会（Board of Directors）と連携しつつ分割を進めて参りますが、来年度のディストリクト組織体制は、今回の決議された分割後の形を考慮したものにしていくことになります。皆さんにも、本件の進捗を報告しながら進めて参りますので、引き続きディストリクトの円滑な運営に対し、ご協力のほど何卒よろしくお願い致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>District Reformation</t>
+  </si>
+  <si>
+    <t>A motion to reform District 76 was passed at the District Executive Committee (consisting of District officers) held on November 6th.
+The motions adopted are as follows:
+Reform District 76
+The boundaries of each district shall be as follows (76A, 76B)
+76A: Western Japan from Kanagawa + other than Tokyo 23 wards
+76B: Northern Japan from Saitama and Chiba + Tokyo 23 wards
+＜Japan＞				＜Tokyo＞
+District 76 (Japan) has grown rapidly since it was approved as an official Toastmasters district in 2004, and today it is one of the largest organizations in the world with over 220 clubs.
+This adoption will make our organizational management more stable, and we will be able to create a foundation for further growth of Toastmasters in Japan after COVID-19.
+I feel that this is a wonderful result of the enthusiastic support and development of Toastmasters activities by many of our members in Japan.
+Districts with more than 200 clubs may begin considering divisions under Toastmasters International's Protocol 7.0. In Japan, the discussion began in 2019, when the club reached 200 clubs.
+At DEC last year, it was adopted to “form a district reformation committee and start discussions”.
+A preparatory reformation committee was launched in July this year, chaired by immediate past district director (IPDD) Maki Matsumoto, DTM.
+The Preparatory Reformation Committee started its activities with past District Officers and past Division Directors of each area as members. 
+The progress information was shared not only with members of this committee, but also with DEC members. 
+At the DEC held in September, we have carefully discussed the issues, including the pros and cons of the reformation itself.
+As a result, pursuant to Section 3-C of Protocol 7.0, we have formally proceeded with the reformation process for Toastmasters International with the approval of the DEC majority.
+Please refer to the linked document for the details of the discussion process so far.
+https://drive.google.com/file/d/10poMF_aWOKTfzKcC_UdPqupxITV-UAel/view?usp=share_link
+We will proceed with the reformation in cooperation with the Board of Directors of Toastmasters International.
+Meanwhile, next year's district organization will be based on the result of this approval, taking into consideration the reformed districts.
+We will proceed while reporting the progress of this matter to the members. 
+Your continued cooperation for the smooth operation of District 76 will be much appreciated.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーストマスターズ・リーダーシップ・インスティチュート(TLI)参加申込み開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーストマスターズ・リーダーシップ・インスティチュート（TLI）は、ディストリクト76の全てのトーストマスターズ会員および非会員に提供される学びの機会です。
+12月から1月にかけて、１５のセッションが提供され、さまざまなテーマについて学んだり、情報を得ることができます。ぜひご参加ください。
+D76ホームページ： https://district76.org/ja/cot-2021-2022/
+直接リンク：TLI情報ページ（内容とスケジュール） /  TLI参加登録フォーム
+各セッションの詳細は今後TLI情報ページに追記されます。当日のZoomリンクは実施前に登録されたメールアドレスにお送りします。
+クラブの役員は、どれでも３つのセッションに参加することで後期役員研修(COT#2)の完了要件を満たします。役員会内での共有をよろしくお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラブ活性化プログラム：フォームの準備ができました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好評につき、今年度も「クラブ活性化プログラム」を開始します！改良されたフォームの準備ができましたのでお知らせします。
+このプログラムは、設定された目標をスタンプラリーのように達成していくことで賞を獲得できる企画です。プログラム期間は2022年7月から2023年4月（フォームの提出締め切りは2023年5月7日）ですので、今年7月以降のスピーチ、例会の役割、クラブの特別企画などが対象になります。ぜひ積極的にご参加ください。
+今年度のフォームはこちらのリンクからダウンロードしてください。フォームの提出方法は後日発表しますので暫くお待ちください。
+https://district76.org/ja/club-energizing-program/
+昨年度の「クラブ活性化プログラム」賞品について：
+昨年度の活性化プログラムを達成された皆さん、大変お待たせしております。５月に予定されていたものの、システム障害により延期になっていたトーストマスターズ・オンラインショップがついに11月再オープンしました。
+昨年度の賞品は順次発注の上、お届けする予定です。もう暫く時間が掛かると思いますが、お楽しみにお待ちいただけると幸いです。よろしくお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディビジョンコンテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディビジョンレベルの論評コンテストが続いています。ディビジョンコンテストの勝者は、５月の全国大会期間中に開催されるディストリクトコンテストへの出場権を得ます。ぜひ参加して出場者を応援しましょう！
+ディビジョンコンテスト：スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toastmasters Leadership Institute (TLI): Registration Started</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toastmasters Leadership Institute (TLI) is a series of learning &amp; development opportunities provided by the District to all Toastmasters and non-Toastmasters in our District.
+15 sessions will be offered between December and January which cover a variety of topics  for you to learn and share information on. 
+D76 Homepage: https://district76.org/ja/cot-2021-2022/
+Direct link to: TLI Information Page (contents and schedule) / TLI Registration Form 
+Details of each session will be added to the TLI information page as they become available. The Zoom link for the session will be sent to your registered email address prior to the event.
+Please note that club officers can fulfill the officer training attendance credit (COT#2) by joining any three (3) sessions of their choice.  Please make sure to confirm the attendance in the club executive committee.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Club Energizing Program - Forms are ready!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Club Energizing Program" is back by popular demand!   We are finally ready with the improved forms for this year and the links are below.
+This program is a stamp-rally like project in which participants can earn prizes by completing preset goals. The program period is from July 2022 to April 2023 (deadline for form submission is May 7, 2023), so speeches, meeting roles, and special club events from July onward are eligible. We hope to see a lot of participation again this year.
+Download this year’s forms from the link below. Please note that the instruction on how to submit the form will be announced at a later date.
+https://district76.org/en/club-energizing-program/
+Information on last year's "Club Activation Program" prizes
+To those of you who completed last year's energizing program, we are very pleased to announce that the Toastmasters Online Shop, which was originally scheduled to reopen in May but was postponed due to a system failure, finally reopened in November.
+The prizes will be ordered as soon as possible and will be delivered to you. It will take some more time, but we appreciate your patience and understanding.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division Contests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Division-level evaluation contests are still taking place. Division Contest winners will proceed to the District Contest, which will be held during the Annual Conference in May. Let’s cheer on our contestants!
+Division Contest Schedule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかめ大人のお年玉！刺さるメッセージGP！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トーストマスターズ宣伝用のキャッチコピーをクラブで考えてみませんか？」
+新しい会員にトーストマスターズクラブを紹介するには、伝わるメッセージが大切。
+例「話し方ひとつで、あなたが変わる、世界が変わる」
+（ディストリクト76日本のウェブサイト）
+そこで、どんなメッセージが刺さるかをこの機会にクラブで考えてみませんか。
+優秀賞・入賞された方には素敵な例会で使えるお年玉を用意しておりますので、クラブで相談してぜひご参加ください♪
+申込みはコチラから（12/10土 ~）
+https://forms.gle/yAFn9FEMjkVNaKRL6
+＜イベント＞
+●　日本語と英語のそれぞれの部門で募集
+●　クラブからは１つの言語につき１つまで
+→各クラブで最大で日本語と英語の2つまでOK
+＜お年玉＞
+【日本語】
+最優秀賞（１クラブ）　『iPad 』(第9世代)」
+入賞（２クラブ）　　　『ズーム有料アカウント １年分』
+【英語】
+最優秀賞（１クラブ）　『会議用スピーカー』
+入賞（２クラブ）　　　『ズーム有料アカウント １年分』
+＜スケジュール＞
+12/10 (土) ~ 12/25 (日)：応募期間
+12/26 (月) ~ 12/31(土)：投票期間
+1月初旬：結果発表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message Grand Prix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Why don't you come up with an impact slogan for Toastmasters promotion at your club?"
+To introduce a Toastmasters club to new members, it is important to convey a powerful message.
+Example: “話し方ひとつで、あなたが変わる、世界が変わる"
+(Translation: The way you speak can change you and change the world".) [District 76 Japan website]
+Let's take this opportunity to think about what kind of message will hit home.
+For those who have won the award, we have prepared an Otoshidama/New Year's gift that can be used at a hybrid meeting, so please consult with the club and participate ♪
+Entry from here（12/10 Sat ~）
+https://forms.gle/yAFn9FEMjkVNaKRL6
+&lt;Event&gt;
+● There are Japanese and English categories.
+● One message per language from each club
+→ Each club can apply for both  Japanese and English.
+&lt;Prize&gt;
+【Japanese】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▶︎ Prize (1 club) " 'iPad" (9 th generation)
+▶︎ Good Award Prizes (2 clubs) "Zoom paid account for 1 year"
+【English】
+▶︎Best Award (1 club) "Conference Speaker"
+▶︎Good Award (2 clubs) "Zoom paid account for 1 year"
+&lt;Schedule&gt;
+● 12/10(Sat) ~ 12/25(Sun)
+　Application
+● 12/26(Mon) ~ 12/31(Sat)
+　Voting
+● Early January
+　Result Announcement </t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -48,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +464,25 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +505,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,28 +792,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="30.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="409.6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -399,28 +1038,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CA287-BE4E-40C1-ABC1-70414EEB5C54}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="409.6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
